--- a/PopupApp/bin/Debug/Контрагент.xlsx
+++ b/PopupApp/bin/Debug/Контрагент.xlsx
@@ -6,16 +6,18 @@
   </bookViews>
   <sheets>
     <sheet name="Иванов И.И." sheetId="1" r:id="rId1"/>
-    <sheet name="Сергеевич С.С." sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Наименование</t>
+  </si>
+  <si>
+    <t>Номер договора</t>
   </si>
   <si>
     <t>Местоположение</t>
@@ -30,52 +32,40 @@
     <t>Договор</t>
   </si>
   <si>
+    <t>Услуга</t>
+  </si>
+  <si>
     <t>Стоимость</t>
   </si>
   <si>
     <t>Статус</t>
   </si>
   <si>
-    <t>Test3</t>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>3123123</t>
   </si>
   <si>
     <t>Москва</t>
   </si>
   <si>
-    <t>02.01.2023</t>
+    <t>23.05.2023</t>
   </si>
   <si>
-    <t>30.05.2023</t>
+    <t>31.05.2023</t>
   </si>
   <si>
     <t>Входящий</t>
+  </si>
+  <si>
+    <t>Проектирование</t>
   </si>
   <si>
     <t>25000</t>
   </si>
   <si>
     <t>Открыт</t>
-  </si>
-  <si>
-    <t>Test2</t>
-  </si>
-  <si>
-    <t>Мытищи</t>
-  </si>
-  <si>
-    <t>02.07.2023</t>
-  </si>
-  <si>
-    <t>30.07.2023</t>
-  </si>
-  <si>
-    <t>Исходящий</t>
-  </si>
-  <si>
-    <t>30000</t>
-  </si>
-  <si>
-    <t>Закрыт</t>
   </si>
 </sst>
 </file>
@@ -121,7 +111,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -149,87 +139,40 @@
       <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="H2" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="I2" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
